--- a/Test Cases Document.xlsx
+++ b/Test Cases Document.xlsx
@@ -1,123 +1,234 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
-  <si>
-    <t>Test Case ID</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Steps</t>
-  </si>
-  <si>
-    <t>Expected Results</t>
-  </si>
-  <si>
-    <t>Actual Result</t>
-  </si>
-  <si>
-    <t>Register null input check</t>
-  </si>
-  <si>
-    <t>Open website then click on the login button. Click on register button then try to register without giving any details.</t>
-  </si>
-  <si>
-    <t>It should give an error or change in UI show invalid input type</t>
-  </si>
-  <si>
-    <t>Register with null non-required field</t>
-  </si>
-  <si>
-    <t>Open website then click on the login button. Click on register button then try to register without filling any non compulsary or non required field details.</t>
-  </si>
-  <si>
-    <t>It should allow the user to login easily without non required field</t>
-  </si>
-  <si>
-    <t>Register Password and Confirm Password check</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+  <si>
+    <t xml:space="preserve">Test Case ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected Results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Register with null input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open website then click on the login button. Click on register button then try to register without giving any details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should give an error or change in UI show invalid input type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Register with null input in non-required field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open website then click on the login button. Click on register button then try to register without filling any non compulsary or non required field details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should allow the user to login easily without non required field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Register with mismatched Confirm Password</t>
   </si>
   <si>
     <t xml:space="preserve">Open website then click on the login button. Click on register button then try to register by filling different Password and Confirm Password details. </t>
   </si>
   <si>
-    <t>It should show an error for unmatched password</t>
-  </si>
-  <si>
-    <t>Register view Password button check</t>
+    <t xml:space="preserve">It should show an error for unmatched password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Register view Password button check</t>
   </si>
   <si>
     <t xml:space="preserve">Open website then click on the login button. Click on register button then try to view the hidden password you are putting using the eye button. </t>
   </si>
   <si>
-    <t>It should show the hidden password you have written</t>
-  </si>
-  <si>
-    <t>Register password length</t>
+    <t xml:space="preserve">It should show the hidden password you have written</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Register with small password length</t>
   </si>
   <si>
     <t xml:space="preserve">Open website then click on the login button. Click on register button then try to add password which is less then 8 letters. </t>
   </si>
   <si>
-    <t>It should show the error for password length not matching</t>
-  </si>
-  <si>
-    <t>Register unique Username</t>
+    <t xml:space="preserve">It should show the error for password length not matching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Register with same Username</t>
   </si>
   <si>
     <t xml:space="preserve">Open website then click on the login button. Click on register button then try register sucessfully a dummy user. Then try to register a new user with the same username as the dummy username added before. </t>
   </si>
   <si>
-    <t>It should show error for alredy taken username or not unique username</t>
-  </si>
-  <si>
-    <t>Login null input check</t>
-  </si>
-  <si>
-    <t>Open website then click on the login button. Then try to login without giving any deails by clicking on the login button.</t>
-  </si>
-  <si>
-    <t>Invalid Login without register</t>
+    <t xml:space="preserve">It should show error for alredy taken username or not unique username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login with null input </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open website then click on the login button. Then try to login without giving any deails by clicking on the login button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login with correct details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open website then click on the login button. Then try to login using correct username and password that you registered with. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should should show sucessful login or direct you to the main page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login without register</t>
   </si>
   <si>
     <t xml:space="preserve">Open website then click on the login button. Then try to login using some psuedo username and password. </t>
   </si>
   <si>
-    <t>It should not allow the user to get logged in and show and error for unregistered user</t>
+    <t xml:space="preserve">It should not allow the user to get logged in and show and error for unregistered user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login view Password button check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open website then click on the login button. Click on login button then try to view the hidden password you are putting using the eye button. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empty cart without adding anything</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open the website and try to open the cart section.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should show no items in the cart.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add multiple quantity of an item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open the website and try to add an item multiple times to the cart. Then open the cart section.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should the item listed in cart with the quantity same as the times you have added it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checkout without login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open the website and try to add some items in the cart and then go to cart and try to checkout.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should not allow the user to checkout without login.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checkout without filling address details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open the website, login with your ID and password. Then try to add some items in the cart and then go to cart and try to checkout without filling address details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should not allow the user to checkout without address details and show error.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empty cart after sucessful checkout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open the website, login with your ID and password. Then try to add some items in the cart and then go to cart and try to checkout with proper address details sucessfully.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After a sucessful checkout the items which are purchased must be removed from cart.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="9">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -125,35 +236,82 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -164,94 +322,90 @@
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -259,33 +413,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -298,13 +443,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -314,15 +453,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -330,7 +467,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -338,11 +474,11 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -351,21 +487,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="36.5"/>
-    <col customWidth="1" min="3" max="3" width="111.0"/>
-    <col customWidth="1" min="4" max="4" width="63.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="189.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="77.25"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -382,9 +522,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>1.0</v>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -397,9 +537,9 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3">
-      <c r="A3" s="2">
-        <v>2.0</v>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -412,9 +552,9 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>3.0</v>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -427,9 +567,9 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>4.0</v>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
@@ -442,9 +582,9 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>5.0</v>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>17</v>
@@ -457,9 +597,9 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <v>6.0</v>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
@@ -472,9 +612,9 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8">
-      <c r="A8" s="2">
-        <v>7.0</v>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -487,31 +627,132 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9">
-      <c r="A9" s="2">
-        <v>8.0</v>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>